--- a/Database/Bhavesh/OfficeBoyDetails.xlsx
+++ b/Database/Bhavesh/OfficeBoyDetails.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Office Customer Detail</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -184,29 +187,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:S7"/>
+  <dimension ref="E1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,111 +560,120 @@
     <col min="20" max="20" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="9"/>
+    </row>
     <row r="4" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="2"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="12"/>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="1"/>
+      <c r="R6" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8" t="s">
-        <v>15</v>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="E5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
